--- a/excel/main_code.xlsx
+++ b/excel/main_code.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamadakanato/program/python/NLP/var/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamadakanato/program/python/NLP/NLP/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="証券コード" sheetId="1" r:id="rId1"/>
@@ -41,14 +41,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -78,7 +77,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -353,27 +352,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel/main_code.xlsx
+++ b/excel/main_code.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -380,6 +380,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
